--- a/Luban/Datas/enums/enum_ui_panel_id.xlsx
+++ b/Luban/Datas/enums/enum_ui_panel_id.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Github\Jam101\Luban\Datas\enums\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E10897E-2F97-4390-B15A-DA7D7FE438DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81C5959-57B3-4C9F-A8FF-7D5859C0A5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="3765" windowWidth="28800" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
   <si>
     <t>##var</t>
   </si>
@@ -233,6 +233,22 @@
   </si>
   <si>
     <t>HeroList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Room</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoomList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间列表</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -624,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1049,10 +1065,16 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="4"/>
+      <c r="H20" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="I20" s="4"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="4"/>
+      <c r="J20" s="3">
+        <v>16</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
@@ -1062,10 +1084,29 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="4"/>
+      <c r="H21" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="I21" s="4"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="4"/>
+      <c r="J21" s="3">
+        <v>17</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Luban/Datas/enums/enum_ui_panel_id.xlsx
+++ b/Luban/Datas/enums/enum_ui_panel_id.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Github\Jam101\Luban\Datas\enums\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81C5959-57B3-4C9F-A8FF-7D5859C0A5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25154C1-D227-4B9C-9FB8-E21BEC4962A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
   <si>
     <t>##var</t>
   </si>
@@ -249,6 +249,14 @@
   </si>
   <si>
     <t>房间列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -640,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W15" sqref="W15"/>
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1103,10 +1111,302 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="4"/>
+      <c r="H22" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="I22" s="4"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="4"/>
+      <c r="J22" s="3">
+        <v>18</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="4"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="4"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="4"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="4"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="4"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="4"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="4"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="4"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="4"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="4"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="4"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="4"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="4"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="4"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="4"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="4"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
